--- a/results/minimal_seats-France.xlsx
+++ b/results/minimal_seats-France.xlsx
@@ -19,79 +19,79 @@
     <t>Key</t>
   </si>
   <si>
-    <t>DVD</t>
-  </si>
-  <si>
-    <t>DVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS </t>
-  </si>
-  <si>
-    <t>RPR</t>
-  </si>
-  <si>
-    <t>UDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN </t>
-  </si>
-  <si>
-    <t>V -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR </t>
-  </si>
-  <si>
-    <t>UMP</t>
-  </si>
-  <si>
-    <t>DRE</t>
-  </si>
-  <si>
-    <t>MPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC </t>
-  </si>
-  <si>
-    <t>Oth</t>
-  </si>
-  <si>
-    <t>RdG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC </t>
-  </si>
-  <si>
-    <t>EXD</t>
-  </si>
-  <si>
-    <t>FdG</t>
-  </si>
-  <si>
-    <t>Rad</t>
-  </si>
-  <si>
-    <t>D -</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>DVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI </t>
-  </si>
-  <si>
-    <t>LRM</t>
-  </si>
-  <si>
-    <t>MoD</t>
+    <t>DVD - Other-Right (Divers droite, DVD)</t>
+  </si>
+  <si>
+    <t>DVG - Other-Left (Divers gauche, DVG)</t>
+  </si>
+  <si>
+    <t>PC - Communist Party (Parti communiste, PC)</t>
+  </si>
+  <si>
+    <t>PS - Socialist Party (Parti socialiste, PS)</t>
+  </si>
+  <si>
+    <t>RPR - Rally for the Republic (Rassemblement pour la République, RPR)</t>
+  </si>
+  <si>
+    <t>UDF - Union for French Democracy (Union pour la Démocratie française, UDF)</t>
+  </si>
+  <si>
+    <t>FN - National Front (Front national, FN)</t>
+  </si>
+  <si>
+    <t>V - Greens (Les Verts, V)</t>
+  </si>
+  <si>
+    <t>PR - Republican Alliance (Pôle républicain, PR)</t>
+  </si>
+  <si>
+    <t>UMP, LR - Union for a Popular Movement (Union pour un mouvement populaire, UMP, LR), known until  as Union for a Presidential Majority (UMP, Union pour la majorité présidentielle)</t>
+  </si>
+  <si>
+    <t>DREG - Other-Regionalists (Régionaliste, DREG)</t>
+  </si>
+  <si>
+    <t>MPF - Movement for France (Mouvement pour la France, MPF)</t>
+  </si>
+  <si>
+    <t>NC - New Centre (Nouveau centre, NC)</t>
+  </si>
+  <si>
+    <t>Other - - (-, Other)</t>
+  </si>
+  <si>
+    <t>RdG, PRG - Left Radicals (Parti des Radicaux de gauche, RdG, PRG)</t>
+  </si>
+  <si>
+    <t>AC - Centrist Alliance (Alliance centriste , AC)</t>
+  </si>
+  <si>
+    <t>EXD - Extreme Right (Extrême droite, EXD)</t>
+  </si>
+  <si>
+    <t>FdG - Left Front/Alliance of the Overseas (Front de gauche, FdG)</t>
+  </si>
+  <si>
+    <t>Radical - Radical Party (Parti radical, Radical)</t>
+  </si>
+  <si>
+    <t>D - Diverse (Divers, D)</t>
+  </si>
+  <si>
+    <t>DLF - France Arise (Debout la France, DLF)</t>
+  </si>
+  <si>
+    <t>DVE - Other-Ecologists (Autres écologistes, DVE)</t>
+  </si>
+  <si>
+    <t>FI - Unsubmissive France (La France Insoumise, FI)</t>
+  </si>
+  <si>
+    <t>LRM - Forward (La Republique en marche, LRM)</t>
+  </si>
+  <si>
+    <t>MoDem - Democratic Movement (Mouvement démocrate, MoDem)</t>
   </si>
   <si>
     <t>1993</t>
